--- a/Docs/assets to import.xlsx
+++ b/Docs/assets to import.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logistic\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714AA10D-A1E6-4136-9DCC-5958CFA8E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E36BDC-72D3-4A98-ACAF-A2C96BE2DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Furniture" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
       <sheetName val="Computer and Electronics"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="O3" t="str">
@@ -827,11 +827,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9847,8 +9847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFFF102-26E2-4B46-85F9-06F0C3E86F0F}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9860,6 +9860,9 @@
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -9938,7 +9941,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
@@ -9962,28 +9965,28 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
         <v>30</v>
@@ -9995,13 +9998,13 @@
         <v>98</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
         <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -10009,7 +10012,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
@@ -10033,28 +10036,28 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>30</v>
@@ -10066,13 +10069,13 @@
         <v>98</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V3" t="s">
         <v>33</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -10080,7 +10083,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
@@ -10104,28 +10107,28 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
         <v>30</v>
@@ -10137,13 +10140,13 @@
         <v>98</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V4" t="s">
         <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -10151,7 +10154,7 @@
         <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
@@ -10172,28 +10175,28 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
         <v>30</v>
@@ -10205,13 +10208,13 @@
         <v>102</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V5" t="s">
         <v>33</v>
       </c>
       <c r="W5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -10219,7 +10222,7 @@
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>93</v>
@@ -10240,28 +10243,28 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
         <v>30</v>
@@ -10273,13 +10276,13 @@
         <v>102</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V6" t="s">
         <v>33</v>
       </c>
       <c r="W6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -10287,7 +10290,7 @@
         <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
@@ -10308,28 +10311,28 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
         <v>30</v>
@@ -10341,13 +10344,13 @@
         <v>104</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
         <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -10355,7 +10358,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -10376,28 +10379,28 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -10409,13 +10412,13 @@
         <v>104</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V8" t="s">
         <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -10423,7 +10426,7 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
@@ -10444,28 +10447,28 @@
         <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
         <v>30</v>
@@ -10477,13 +10480,13 @@
         <v>104</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V9" t="s">
         <v>33</v>
       </c>
       <c r="W9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -10491,7 +10494,7 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -10515,28 +10518,28 @@
         <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R10" t="s">
         <v>30</v>
@@ -10548,13 +10551,13 @@
         <v>108</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V10" t="s">
         <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -10562,7 +10565,7 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
@@ -10586,28 +10589,28 @@
         <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -10619,13 +10622,13 @@
         <v>110</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -10666,10 +10669,10 @@
         <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
         <v>59</v>
@@ -10687,13 +10690,13 @@
         <v>116</v>
       </c>
       <c r="U12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V12" t="s">
         <v>33</v>
       </c>
       <c r="W12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -10734,10 +10737,10 @@
         <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
         <v>59</v>
@@ -10755,13 +10758,13 @@
         <v>116</v>
       </c>
       <c r="U13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V13" t="s">
         <v>33</v>
       </c>
       <c r="W13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -10802,10 +10805,10 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
         <v>59</v>
@@ -10823,13 +10826,13 @@
         <v>116</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V14" t="s">
         <v>33</v>
       </c>
       <c r="W14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -10870,10 +10873,10 @@
         <v>58</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O15" t="s">
         <v>59</v>
@@ -10891,13 +10894,13 @@
         <v>116</v>
       </c>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V15" t="s">
         <v>33</v>
       </c>
       <c r="W15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -10938,10 +10941,10 @@
         <v>58</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O16" t="s">
         <v>59</v>
@@ -10959,13 +10962,13 @@
         <v>116</v>
       </c>
       <c r="U16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V16" t="s">
         <v>33</v>
       </c>
       <c r="W16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -11006,10 +11009,10 @@
         <v>58</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
         <v>59</v>
@@ -11027,13 +11030,13 @@
         <v>116</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V17" t="s">
         <v>33</v>
       </c>
       <c r="W17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -11041,7 +11044,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>93</v>
@@ -11071,10 +11074,10 @@
         <v>58</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O18" t="s">
         <v>59</v>
@@ -11092,13 +11095,13 @@
         <v>124</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V18" t="s">
         <v>33</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -11106,7 +11109,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>93</v>
@@ -11136,10 +11139,10 @@
         <v>58</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O19" t="s">
         <v>59</v>
@@ -11157,13 +11160,13 @@
         <v>124</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V19" t="s">
         <v>33</v>
       </c>
       <c r="W19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -11201,10 +11204,10 @@
         <v>58</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O20" t="s">
         <v>59</v>
@@ -11222,13 +11225,13 @@
         <v>129</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V20" t="s">
         <v>33</v>
       </c>
       <c r="W20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -11263,10 +11266,10 @@
         <v>58</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O21" t="s">
         <v>59</v>
@@ -11284,13 +11287,13 @@
         <v>133</v>
       </c>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V21" t="s">
         <v>33</v>
       </c>
       <c r="W21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -11298,7 +11301,7 @@
         <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>93</v>
@@ -11322,10 +11325,10 @@
         <v>58</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O22" t="s">
         <v>59</v>
@@ -11343,13 +11346,13 @@
         <v>136</v>
       </c>
       <c r="U22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V22" t="s">
         <v>33</v>
       </c>
       <c r="W22" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -11357,7 +11360,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
@@ -11387,10 +11390,10 @@
         <v>58</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O23" t="s">
         <v>59</v>
@@ -11408,13 +11411,13 @@
         <v>138</v>
       </c>
       <c r="U23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V23" t="s">
         <v>33</v>
       </c>
       <c r="W23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -11422,7 +11425,7 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
@@ -11452,10 +11455,10 @@
         <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O24" t="s">
         <v>59</v>
@@ -11473,13 +11476,13 @@
         <v>138</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V24" t="s">
         <v>33</v>
       </c>
       <c r="W24" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -11487,7 +11490,7 @@
         <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
@@ -11517,10 +11520,10 @@
         <v>58</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O25" t="s">
         <v>59</v>
@@ -11538,13 +11541,13 @@
         <v>138</v>
       </c>
       <c r="U25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V25" t="s">
         <v>33</v>
       </c>
       <c r="W25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -11552,7 +11555,7 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
@@ -11585,10 +11588,10 @@
         <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O26" t="s">
         <v>59</v>
@@ -11606,13 +11609,13 @@
         <v>142</v>
       </c>
       <c r="U26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V26" t="s">
         <v>33</v>
       </c>
       <c r="W26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -11620,7 +11623,7 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>93</v>
@@ -11653,10 +11656,10 @@
         <v>141</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O27" t="s">
         <v>59</v>
@@ -11674,13 +11677,13 @@
         <v>142</v>
       </c>
       <c r="U27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V27" t="s">
         <v>33</v>
       </c>
       <c r="W27" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -11688,7 +11691,7 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -11721,10 +11724,10 @@
         <v>141</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O28" t="s">
         <v>59</v>
@@ -11742,13 +11745,13 @@
         <v>142</v>
       </c>
       <c r="U28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V28" t="s">
         <v>33</v>
       </c>
       <c r="W28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -11756,7 +11759,7 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
@@ -11789,10 +11792,10 @@
         <v>141</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O29" t="s">
         <v>59</v>
@@ -11810,13 +11813,13 @@
         <v>142</v>
       </c>
       <c r="U29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V29" t="s">
         <v>33</v>
       </c>
       <c r="W29" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -11839,28 +11842,28 @@
         <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="R30" t="s">
         <v>30</v>
@@ -11872,13 +11875,13 @@
         <v>147</v>
       </c>
       <c r="U30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V30" t="s">
         <v>33</v>
       </c>
       <c r="W30" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -11886,7 +11889,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>93</v>
@@ -11912,14 +11915,14 @@
       <c r="K31">
         <v>37.5</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <v>45028</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O31" t="s">
         <v>59</v>
@@ -11937,13 +11940,13 @@
         <v>149</v>
       </c>
       <c r="U31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V31" t="s">
         <v>33</v>
       </c>
       <c r="W31" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -11951,7 +11954,7 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
@@ -11981,10 +11984,10 @@
         <v>45028</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="O32" t="s">
         <v>59</v>
@@ -12002,13 +12005,13 @@
         <v>149</v>
       </c>
       <c r="U32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="V32" t="s">
         <v>33</v>
       </c>
       <c r="W32" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -12022,7 +12025,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12031,6 +12034,13 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -12204,8 +12214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45841932-2100-4D5F-A69E-818128AA5E3E}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12372,7 +12382,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13004,7 +13014,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
